--- a/Mauricio/Prod_Scientifique.xlsx
+++ b/Mauricio/Prod_Scientifique.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauricio/Dropbox/Projets/ERPI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/Documents/7-ERPI/HCERES/ERPI-HCERES/Mauricio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D56C4A7A-D357-E948-ABBB-C4A7DCE9901C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BDB597-B661-8046-903B-6A45B3DC8F44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28360" windowHeight="16900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,22 +21,6 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Feuil2!$M$25:$W$25</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Feuil2!$M$26:$W$26</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Feuil2!$M$27:$W$27</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Feuil2!$M$28:$W$28</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Feuil2!$M$25:$W$25</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Feuil2!$M$26:$W$26</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Feuil2!$M$27:$W$27</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Feuil2!$M$28:$W$28</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Feuil2!$M$27:$W$27</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Feuil2!$M$28:$W$28</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Feuil2!$M$25:$W$25</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Feuil2!$M$26:$W$26</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Feuil2!$M$27:$W$27</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Feuil2!$M$28:$W$28</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Feuil2!$M$25:$W$25</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Feuil2!$M$26:$W$26</definedName>
     <definedName name="hf">[1]MenusR!$F$10:$F$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1208,60 +1192,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1317,6 +1247,60 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="84">
@@ -2169,7 +2153,7 @@
             <c:numRef>
               <c:f>Feuil2!$M$28:$W$28</c:f>
               <c:numCache>
-                <c:formatCode>0\.0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.492</c:v>
@@ -2268,7 +2252,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="0\.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6426,8 +6410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AD166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="131" workbookViewId="0">
-      <pane ySplit="13620" topLeftCell="A147"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="116" workbookViewId="0">
+      <pane ySplit="12320" topLeftCell="A147"/>
       <selection activeCell="L77" sqref="L77"/>
       <selection pane="bottomLeft" activeCell="L76" sqref="L76"/>
     </sheetView>
@@ -6525,7 +6509,7 @@
       <c r="AA5" s="4"/>
     </row>
     <row r="6" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="87" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -6603,7 +6587,7 @@
       <c r="AA6" s="4"/>
     </row>
     <row r="7" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C7" s="71"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
@@ -6675,7 +6659,7 @@
       <c r="AA7" s="4"/>
     </row>
     <row r="8" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="87" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -6734,7 +6718,7 @@
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C9" s="71"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
@@ -7134,8 +7118,8 @@
       <c r="W16" s="17"/>
     </row>
     <row r="17" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="28">
         <v>2003</v>
       </c>
@@ -7191,10 +7175,10 @@
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="69"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="24">
         <f>E6+E8</f>
         <v>0</v>
@@ -7262,10 +7246,10 @@
       <c r="W18" s="17"/>
     </row>
     <row r="19" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="69"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="24">
         <f>E7+E9</f>
         <v>2</v>
@@ -7334,11 +7318,11 @@
       <c r="W19" s="17"/>
     </row>
     <row r="20" spans="3:23" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="66" t="str">
+      <c r="C20" s="83" t="str">
         <f>C10</f>
         <v>Publications de vulgarisation</v>
       </c>
-      <c r="D20" s="67"/>
+      <c r="D20" s="84"/>
       <c r="E20" s="22">
         <f>E10</f>
         <v>4</v>
@@ -7408,11 +7392,11 @@
       </c>
     </row>
     <row r="21" spans="3:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="66" t="str">
+      <c r="C21" s="83" t="str">
         <f t="shared" ref="C21:C24" si="8">C11</f>
         <v>Brevets et marques</v>
       </c>
-      <c r="D21" s="67"/>
+      <c r="D21" s="84"/>
       <c r="E21" s="22">
         <f t="shared" ref="E21:Q24" si="9">E11</f>
         <v>0</v>
@@ -7482,10 +7466,10 @@
       </c>
     </row>
     <row r="22" spans="3:23" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="67"/>
+      <c r="D22" s="84"/>
       <c r="E22" s="22">
         <f t="shared" si="9"/>
         <v>2</v>
@@ -7555,10 +7539,10 @@
       </c>
     </row>
     <row r="23" spans="3:23" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="69"/>
+      <c r="D23" s="86"/>
       <c r="E23" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -7628,11 +7612,11 @@
       </c>
     </row>
     <row r="24" spans="3:23" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="66" t="str">
+      <c r="C24" s="83" t="str">
         <f t="shared" si="8"/>
         <v>Communications internationales avec actes</v>
       </c>
-      <c r="D24" s="67"/>
+      <c r="D24" s="84"/>
       <c r="E24" s="22">
         <f t="shared" si="9"/>
         <v>27</v>
@@ -8866,10 +8850,10 @@
         <v>6.75</v>
       </c>
       <c r="AA117" s="32"/>
-      <c r="AC117" s="97">
+      <c r="AC117" s="79">
         <v>9.25</v>
       </c>
-      <c r="AD117" s="97">
+      <c r="AD117" s="79">
         <v>9.25</v>
       </c>
     </row>
@@ -8947,7 +8931,7 @@
       <c r="Z118" s="55">
         <v>7</v>
       </c>
-      <c r="AA118" s="99"/>
+      <c r="AA118" s="81"/>
       <c r="AC118">
         <f>SUM(U118:Y118)</f>
         <v>77</v>
@@ -9037,12 +9021,12 @@
         <f t="shared" si="18"/>
         <v>1.037037037037037</v>
       </c>
-      <c r="AA119" s="100"/>
-      <c r="AC119" s="98">
+      <c r="AA119" s="82"/>
+      <c r="AC119" s="80">
         <f>AC118/AC117/5</f>
         <v>1.664864864864865</v>
       </c>
-      <c r="AD119" s="98">
+      <c r="AD119" s="80">
         <f>56/AD117/5</f>
         <v>1.2108108108108109</v>
       </c>
@@ -9690,7 +9674,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="97" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="36" t="s">
@@ -9714,10 +9698,10 @@
       <c r="H3" s="36">
         <v>2</v>
       </c>
-      <c r="I3" s="74">
+      <c r="I3" s="99">
         <v>22</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="97" t="s">
         <v>41</v>
       </c>
       <c r="L3" s="36" t="s">
@@ -9741,20 +9725,20 @@
       <c r="R3" s="36">
         <v>13</v>
       </c>
-      <c r="S3" s="74">
+      <c r="S3" s="99">
         <f>SUM(M3:R4)</f>
         <v>56</v>
       </c>
-      <c r="T3" s="78">
+      <c r="T3" s="89">
         <v>22</v>
       </c>
-      <c r="U3" s="81">
+      <c r="U3" s="92">
         <f>(S3-T3)/T3</f>
         <v>1.5454545454545454</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="37" t="s">
         <v>43</v>
       </c>
@@ -9766,8 +9750,8 @@
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
-      <c r="I4" s="75"/>
-      <c r="K4" s="73"/>
+      <c r="I4" s="100"/>
+      <c r="K4" s="98"/>
       <c r="L4" s="37" t="s">
         <v>43</v>
       </c>
@@ -9779,12 +9763,12 @@
       </c>
       <c r="Q4" s="37"/>
       <c r="R4" s="37"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="82"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="93"/>
     </row>
     <row r="5" spans="1:21" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="97" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -9806,10 +9790,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="36"/>
-      <c r="I5" s="74">
+      <c r="I5" s="99">
         <v>18</v>
       </c>
-      <c r="K5" s="72" t="s">
+      <c r="K5" s="97" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="36" t="s">
@@ -9831,20 +9815,20 @@
         <v>2</v>
       </c>
       <c r="R5" s="36"/>
-      <c r="S5" s="74">
+      <c r="S5" s="99">
         <f>SUM(M5:R6)</f>
         <v>14</v>
       </c>
-      <c r="T5" s="80">
+      <c r="T5" s="91">
         <v>18</v>
       </c>
-      <c r="U5" s="81">
+      <c r="U5" s="92">
         <f>(S5-T5)/T5</f>
         <v>-0.22222222222222221</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="37" t="s">
         <v>43</v>
       </c>
@@ -9860,8 +9844,8 @@
       </c>
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
-      <c r="I6" s="75"/>
-      <c r="K6" s="73"/>
+      <c r="I6" s="100"/>
+      <c r="K6" s="98"/>
       <c r="L6" s="37" t="s">
         <v>43</v>
       </c>
@@ -9873,9 +9857,9 @@
       <c r="P6" s="37"/>
       <c r="Q6" s="37"/>
       <c r="R6" s="37"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="82"/>
+      <c r="S6" s="100"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="93"/>
     </row>
     <row r="7" spans="1:21" ht="44" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
@@ -9977,7 +9961,7 @@
       <c r="A9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="97" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="36">
@@ -10000,7 +9984,7 @@
       <c r="K9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="72" t="s">
+      <c r="L9" s="97" t="s">
         <v>12</v>
       </c>
       <c r="M9" s="36">
@@ -10035,7 +10019,7 @@
       <c r="A10" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="37"/>
       <c r="D10" s="37">
         <v>1</v>
@@ -10052,7 +10036,7 @@
       <c r="K10" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="73"/>
+      <c r="L10" s="98"/>
       <c r="M10" s="37"/>
       <c r="N10" s="37"/>
       <c r="O10" s="37"/>
@@ -10138,90 +10122,90 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="29" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="97" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="97">
         <v>6</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="97">
         <v>4</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="97">
         <v>6</v>
       </c>
-      <c r="F12" s="72">
+      <c r="F12" s="97">
         <v>3</v>
       </c>
-      <c r="G12" s="72">
+      <c r="G12" s="97">
         <v>1</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="76">
+      <c r="H12" s="99"/>
+      <c r="I12" s="95">
         <v>20</v>
       </c>
-      <c r="K12" s="72" t="s">
+      <c r="K12" s="97" t="s">
         <v>45</v>
       </c>
       <c r="L12" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="72">
+      <c r="M12" s="97">
         <v>6</v>
       </c>
-      <c r="N12" s="72">
+      <c r="N12" s="97">
         <v>1</v>
       </c>
-      <c r="O12" s="72">
+      <c r="O12" s="97">
         <v>2</v>
       </c>
-      <c r="P12" s="72">
+      <c r="P12" s="97">
         <v>1</v>
       </c>
-      <c r="Q12" s="72">
+      <c r="Q12" s="97">
         <v>1</v>
       </c>
-      <c r="R12" s="74"/>
-      <c r="S12" s="76">
+      <c r="R12" s="99"/>
+      <c r="S12" s="95">
         <f>SUM(M12:R13)</f>
         <v>11</v>
       </c>
-      <c r="T12" s="78">
+      <c r="T12" s="89">
         <v>20</v>
       </c>
-      <c r="U12" s="81">
+      <c r="U12" s="92">
         <f t="shared" ref="U12" si="0">(S12-T12)/T12</f>
         <v>-0.45</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="77"/>
-      <c r="K13" s="73"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="96"/>
+      <c r="K13" s="98"/>
       <c r="L13" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="83"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="94"/>
     </row>
     <row r="14" spans="1:21" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
@@ -10570,22 +10554,22 @@
       <c r="Q25" s="34">
         <v>2015</v>
       </c>
-      <c r="R25" s="90">
+      <c r="R25" s="72">
         <v>2016</v>
       </c>
-      <c r="S25" s="91">
+      <c r="S25" s="73">
         <v>2017</v>
       </c>
-      <c r="T25" s="92">
+      <c r="T25" s="74">
         <v>2018</v>
       </c>
-      <c r="U25" s="92">
+      <c r="U25" s="74">
         <v>2019</v>
       </c>
-      <c r="V25" s="92">
+      <c r="V25" s="74">
         <v>2020</v>
       </c>
-      <c r="W25" s="95">
+      <c r="W25" s="77">
         <v>2021</v>
       </c>
     </row>
@@ -10598,7 +10582,7 @@
         <v>6</v>
       </c>
       <c r="N26">
-        <f t="shared" ref="N26:R26" si="1">N3</f>
+        <f t="shared" ref="N26:Q26" si="1">N3</f>
         <v>10</v>
       </c>
       <c r="O26">
@@ -10641,7 +10625,7 @@
         <v>2</v>
       </c>
       <c r="N27">
-        <f t="shared" ref="N27:R27" si="2">N5</f>
+        <f t="shared" ref="N27:Q27" si="2">N5</f>
         <v>4</v>
       </c>
       <c r="O27">
@@ -10656,20 +10640,20 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="R27" s="93"/>
-      <c r="S27" s="94">
+      <c r="R27" s="75"/>
+      <c r="S27" s="76">
         <v>1</v>
       </c>
-      <c r="T27" s="94">
+      <c r="T27" s="76">
         <v>3</v>
       </c>
-      <c r="U27" s="94">
+      <c r="U27" s="76">
         <v>3</v>
       </c>
-      <c r="V27" s="94">
+      <c r="V27" s="76">
         <v>5</v>
       </c>
-      <c r="W27" s="96">
+      <c r="W27" s="78">
         <v>0</v>
       </c>
     </row>
@@ -10833,12 +10817,16 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="S12:S13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
@@ -10855,16 +10843,12 @@
     <mergeCell ref="P12:P13"/>
     <mergeCell ref="Q12:Q13"/>
     <mergeCell ref="R12:R13"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="U12:U13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -10881,7 +10865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A4F7E8-11D5-7849-AFB3-53ADADB26E6B}">
   <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="161" workbookViewId="0">
+    <sheetView zoomScale="161" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -11305,16 +11289,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="87" t="s">
+      <c r="E20" s="69" t="s">
         <v>112</v>
       </c>
       <c r="F20">
@@ -11326,16 +11310,16 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="86" t="s">
+      <c r="D21" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="87" t="s">
+      <c r="E21" s="69" t="s">
         <v>115</v>
       </c>
       <c r="F21">
@@ -11343,83 +11327,83 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="88"/>
-      <c r="C24" s="88" t="s">
+      <c r="B24" s="70"/>
+      <c r="C24" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="89" t="s">
+      <c r="D24" s="71" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="88">
+      <c r="C25" s="70">
         <v>7</v>
       </c>
-      <c r="D25" s="88">
+      <c r="D25" s="70">
         <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="88">
+      <c r="C26" s="70">
         <v>1</v>
       </c>
-      <c r="D26" s="88">
+      <c r="D26" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="88">
+      <c r="C27" s="70">
         <v>8</v>
       </c>
-      <c r="D27" s="88">
+      <c r="D27" s="70">
         <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="88">
+      <c r="C28" s="70">
         <v>1</v>
       </c>
-      <c r="D28" s="88"/>
+      <c r="D28" s="70"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="88">
+      <c r="C29" s="70">
         <v>1</v>
       </c>
-      <c r="D29" s="88"/>
+      <c r="D29" s="70"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="88">
+      <c r="C30" s="70">
         <v>1</v>
       </c>
-      <c r="D30" s="88"/>
+      <c r="D30" s="70"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="88">
+      <c r="C31" s="70">
         <f>SUM(C25:C30)</f>
         <v>19</v>
       </c>
-      <c r="D31" s="88"/>
+      <c r="D31" s="70"/>
     </row>
   </sheetData>
   <dataValidations count="1">
